--- a/nts_platform_server/template_hours1.xlsx
+++ b/nts_platform_server/template_hours1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Project\NTS_project\nts_platform_server\nts_platform_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01104FC7-4837-4529-8BC3-0CAC5A951C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E2FE83-9084-4DCD-9F56-364CABB05B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="20160" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="20160" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour report form " sheetId="1" r:id="rId1"/>
@@ -149,10 +149,10 @@
     <t>8.00-17.00</t>
   </si>
   <si>
-    <t>Sa</t>
-  </si>
-  <si>
-    <t>Su</t>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
   </si>
 </sst>
 </file>
@@ -666,15 +666,6 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -684,6 +675,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,6 +725,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1274,18 +1274,18 @@
       <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45" t="s">
         <v>34</v>
@@ -1297,10 +1297,10 @@
       <c r="Q6" s="44"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="63"/>
       <c r="D7" s="66" t="s">
         <v>24</v>
@@ -1308,9 +1308,9 @@
       <c r="E7" s="64"/>
       <c r="F7" s="65"/>
       <c r="G7" s="65"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="108"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="106"/>
       <c r="K7" s="44"/>
       <c r="L7" s="46" t="s">
         <v>36</v>
@@ -1322,10 +1322,10 @@
       <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="109"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="54"/>
       <c r="D8" s="89" t="s">
         <v>40</v>
@@ -1333,9 +1333,9 @@
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
       <c r="K8" s="44"/>
       <c r="L8" s="2" t="s">
         <v>35</v>
@@ -1436,11 +1436,11 @@
       <c r="J12" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="114" t="s">
+      <c r="K12" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="115"/>
-      <c r="M12" s="116"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="114"/>
       <c r="N12" s="32"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -1464,11 +1464,11 @@
       <c r="J13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="118"/>
-      <c r="M13" s="119"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="117"/>
       <c r="N13" s="33" t="s">
         <v>19</v>
       </c>
@@ -1501,9 +1501,9 @@
       </c>
       <c r="I14" s="83"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="119"/>
       <c r="N14" s="78"/>
       <c r="O14" s="79"/>
       <c r="P14" s="79"/>
@@ -1528,9 +1528,9 @@
       </c>
       <c r="I15" s="83"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="100"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="119"/>
       <c r="N15" s="75"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
@@ -1555,9 +1555,9 @@
       </c>
       <c r="I16" s="83"/>
       <c r="J16" s="82"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="100"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="119"/>
       <c r="N16" s="78"/>
       <c r="O16" s="79"/>
       <c r="P16" s="79"/>
@@ -1582,9 +1582,9 @@
       </c>
       <c r="I17" s="83"/>
       <c r="J17" s="82"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="119"/>
       <c r="N17" s="75"/>
       <c r="O17" s="80"/>
       <c r="P17" s="80"/>
@@ -1609,9 +1609,9 @@
       </c>
       <c r="I18" s="83"/>
       <c r="J18" s="82"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="100"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="119"/>
       <c r="N18" s="75"/>
       <c r="O18" s="80"/>
       <c r="P18" s="80"/>
@@ -1636,9 +1636,9 @@
       </c>
       <c r="I19" s="83"/>
       <c r="J19" s="72"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="100"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="119"/>
       <c r="N19" s="78"/>
       <c r="O19" s="79"/>
       <c r="P19" s="79"/>
@@ -1663,9 +1663,9 @@
       </c>
       <c r="I20" s="77"/>
       <c r="J20" s="73"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="100"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="119"/>
       <c r="N20" s="75"/>
       <c r="O20" s="80"/>
       <c r="P20" s="80"/>
@@ -1682,9 +1682,9 @@
       <c r="H21" s="62"/>
       <c r="I21" s="76"/>
       <c r="J21" s="72"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="100"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="119"/>
       <c r="N21" s="78"/>
       <c r="O21" s="79"/>
       <c r="P21" s="79"/>
@@ -1706,9 +1706,9 @@
         <v>0</v>
       </c>
       <c r="J22" s="95"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="100"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="119"/>
       <c r="N22" s="81">
         <f>SUM(N15:N21)</f>
         <v>0</v>
@@ -1739,9 +1739,9 @@
       <c r="H23" s="59"/>
       <c r="I23" s="59"/>
       <c r="J23" s="59"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
       <c r="N23" s="69"/>
       <c r="O23" s="69"/>
       <c r="P23" s="69"/>
@@ -1758,9 +1758,9 @@
       <c r="H24" s="59"/>
       <c r="I24" s="59"/>
       <c r="J24" s="59"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
       <c r="N24" s="69"/>
       <c r="O24" s="69"/>
       <c r="P24" s="69"/>
@@ -1777,9 +1777,9 @@
       <c r="H25" s="59"/>
       <c r="I25" s="59"/>
       <c r="J25" s="59"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
       <c r="N25" s="69"/>
       <c r="O25" s="69"/>
       <c r="P25" s="69"/>
@@ -1796,9 +1796,9 @@
       <c r="H26" s="59"/>
       <c r="I26" s="59"/>
       <c r="J26" s="59"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
       <c r="N26" s="69"/>
       <c r="O26" s="69"/>
       <c r="P26" s="69"/>
@@ -1827,11 +1827,11 @@
       <c r="A28" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="101">
+      <c r="B28" s="98">
         <f>A18</f>
         <v>44589</v>
       </c>
-      <c r="C28" s="102"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="14"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -1895,8 +1895,8 @@
       <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="103"/>
-      <c r="B31" s="103"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -2043,6 +2043,12 @@
     <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="K25:M25"/>
@@ -2059,12 +2065,6 @@
     <mergeCell ref="K24:M24"/>
     <mergeCell ref="K23:M23"/>
     <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K17:M17"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
@@ -2093,21 +2093,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E6EF7C1F5067F40A406203BA3CA7B3F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6923eb2438043d4ba031bcbe08dacbab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -2221,10 +2206,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CCE9C8-5A16-4603-800B-EA07B521F99D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1668F3F1-DE14-488F-956E-9FE19AFCD2A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2245,17 +2253,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1668F3F1-DE14-488F-956E-9FE19AFCD2A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CCE9C8-5A16-4603-800B-EA07B521F99D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>